--- a/data/output/FV2404_FV2310/INVOIC/31011.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3879" uniqueCount="330">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="330">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1130,6 +1130,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,7 +1449,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9997,5 +10030,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/INVOIC/31011.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="504">
   <si>
     <t>#</t>
   </si>
@@ -7513,48 +7513,46 @@
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M114" s="5" t="s">
+      <c r="K114" s="2"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5" t="s">
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V114" s="5"/>
+      <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7580,9 +7578,7 @@
         <v>285</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>41</v>
       </c>
@@ -7661,44 +7657,42 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V117" s="5"/>
+      <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -7722,9 +7716,7 @@
         <v>259</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>42</v>
       </c>
@@ -7772,9 +7764,7 @@
         <v>260</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>42</v>
       </c>
@@ -7828,9 +7818,7 @@
         <v>260</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>42</v>
       </c>
@@ -7884,9 +7872,7 @@
         <v>260</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>42</v>
       </c>
@@ -7913,44 +7899,42 @@
       <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M122" s="5" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -7974,9 +7958,7 @@
         <v>259</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>43</v>
       </c>
@@ -8020,9 +8002,7 @@
         <v>287</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>43</v>
       </c>
@@ -8045,48 +8025,46 @@
       <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M125" s="5" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="O125" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5" t="s">
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V125" s="5"/>
+      <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -8116,9 +8094,7 @@
         <v>260</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>44</v>
       </c>
@@ -8170,9 +8146,7 @@
         <v>288</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>44</v>
       </c>
@@ -8224,9 +8198,7 @@
         <v>260</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>44</v>
       </c>
@@ -8253,44 +8225,42 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8314,9 +8284,7 @@
         <v>259</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -8364,9 +8332,7 @@
       <c r="K131" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
@@ -8420,9 +8386,7 @@
       <c r="K132" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>45</v>
       </c>
@@ -8476,9 +8440,7 @@
         <v>260</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>45</v>
       </c>
@@ -8505,48 +8467,46 @@
       <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M134" s="5" t="s">
+      <c r="K134" s="2"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="5" t="s">
+      <c r="O134" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V134" s="5"/>
+      <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -8576,9 +8536,7 @@
         <v>260</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>46</v>
       </c>
@@ -8632,9 +8590,7 @@
       <c r="K136" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L136" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>46</v>
       </c>
@@ -8688,9 +8644,7 @@
         <v>260</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>46</v>
       </c>
@@ -8744,9 +8698,7 @@
         <v>260</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>46</v>
       </c>
@@ -8773,50 +8725,48 @@
       <c r="V138" s="5"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K139" s="5" t="s">
+      <c r="K139" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L139" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M139" s="5" t="s">
+      <c r="L139" s="4"/>
+      <c r="M139" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O139" s="5" t="s">
+      <c r="O139" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5" t="s">
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V139" s="5" t="s">
+      <c r="V139" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8848,9 +8798,7 @@
         <v>260</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>47</v>
       </c>
@@ -8902,9 +8850,7 @@
         <v>288</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>47</v>
       </c>
@@ -8956,9 +8902,7 @@
         <v>260</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>47</v>
       </c>
@@ -8985,50 +8929,48 @@
       <c r="V142" s="5"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5" t="s">
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K143" s="5" t="s">
+      <c r="K143" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M143" s="5" t="s">
+      <c r="L143" s="4"/>
+      <c r="M143" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N143" s="5" t="s">
+      <c r="N143" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O143" s="5" t="s">
+      <c r="O143" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5" t="s">
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V143" s="5" t="s">
+      <c r="V143" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9060,9 +9002,7 @@
         <v>260</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>48</v>
       </c>
@@ -9114,9 +9054,7 @@
         <v>288</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>48</v>
       </c>
@@ -9168,9 +9106,7 @@
         <v>260</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>48</v>
       </c>
@@ -9197,50 +9133,48 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K147" s="5" t="s">
+      <c r="K147" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="L147" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O147" s="5" t="s">
+      <c r="O147" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="V147" s="5" t="s">
+      <c r="V147" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9272,9 +9206,7 @@
         <v>260</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>28</v>
       </c>
@@ -9328,9 +9260,7 @@
       <c r="K149" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="L149" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>28</v>
       </c>
@@ -9384,9 +9314,7 @@
         <v>260</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>28</v>
       </c>
@@ -9413,44 +9341,42 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V151" s="5"/>
+      <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="5" t="s">
@@ -9474,9 +9400,7 @@
         <v>259</v>
       </c>
       <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L152" s="4"/>
       <c r="M152" s="5" t="s">
         <v>49</v>
       </c>
@@ -9524,9 +9448,7 @@
         <v>260</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>49</v>
       </c>
@@ -9580,9 +9502,7 @@
       <c r="K154" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>49</v>
       </c>
@@ -9609,44 +9529,42 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9670,9 +9588,7 @@
         <v>259</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>50</v>
       </c>
@@ -9720,9 +9636,7 @@
         <v>260</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>50</v>
       </c>
@@ -9776,9 +9690,7 @@
       <c r="K158" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L158" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>50</v>
       </c>
@@ -9805,44 +9717,42 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -9866,9 +9776,7 @@
         <v>259</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>51</v>
       </c>
@@ -9912,9 +9820,7 @@
         <v>294</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>51</v>
       </c>
@@ -9964,9 +9870,7 @@
         <v>260</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>51</v>
       </c>
@@ -10020,9 +9924,7 @@
       <c r="K163" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L163" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>51</v>
       </c>
@@ -10074,9 +9976,7 @@
         <v>296</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>51</v>
       </c>
@@ -10101,44 +10001,42 @@
       <c r="V164" s="5"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5" t="s">
+      <c r="C165" s="2"/>
+      <c r="D165" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5" t="s">
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="K165" s="2"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5" t="s">
+      <c r="N165" s="2"/>
+      <c r="O165" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5" t="s">
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V165" s="5"/>
+      <c r="V165" s="2"/>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="5" t="s">
@@ -10164,9 +10062,7 @@
         <v>297</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>52</v>
       </c>
@@ -10189,44 +10085,42 @@
       <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5" t="s">
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M167" s="5" t="s">
+      <c r="K167" s="2"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="s">
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V167" s="5"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
@@ -10250,9 +10144,7 @@
         <v>259</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>53</v>
       </c>
@@ -10300,9 +10192,7 @@
         <v>260</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>53</v>
       </c>
@@ -10356,9 +10246,7 @@
       <c r="K170" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L170" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>53</v>
       </c>
@@ -10385,44 +10273,42 @@
       </c>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="K171" s="2"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V171" s="5"/>
+      <c r="V171" s="2"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="5" t="s">
@@ -10446,9 +10332,7 @@
         <v>259</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>54</v>
       </c>
@@ -10496,9 +10380,7 @@
         <v>260</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>54</v>
       </c>
@@ -10552,9 +10434,7 @@
       <c r="K174" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L174" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>54</v>
       </c>
@@ -10581,44 +10461,42 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -10642,9 +10520,7 @@
         <v>259</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>55</v>
       </c>
@@ -10688,9 +10564,7 @@
         <v>294</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>55</v>
       </c>
@@ -10740,9 +10614,7 @@
         <v>260</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>55</v>
       </c>
@@ -10796,9 +10668,7 @@
       <c r="K179" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L179" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>55</v>
       </c>
@@ -10850,9 +10720,7 @@
         <v>296</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>55</v>
       </c>
@@ -10877,48 +10745,46 @@
       <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M181" s="5" t="s">
+      <c r="K181" s="2"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O181" s="5" t="s">
+      <c r="O181" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V181" s="5"/>
+      <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="5" t="s">
@@ -10948,9 +10814,7 @@
         <v>260</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>56</v>
       </c>
@@ -11004,9 +10868,7 @@
       <c r="K183" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L183" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>56</v>
       </c>
@@ -11033,48 +10895,46 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5" t="s">
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M184" s="5" t="s">
+      <c r="K184" s="2"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O184" s="5" t="s">
+      <c r="O184" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5" t="s">
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V184" s="5"/>
+      <c r="V184" s="2"/>
     </row>
     <row r="185" spans="1:22">
       <c r="A185" s="5" t="s">
@@ -11104,9 +10964,7 @@
         <v>260</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>57</v>
       </c>
@@ -11160,9 +11018,7 @@
       <c r="K186" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>57</v>
       </c>
@@ -11189,44 +11045,42 @@
       </c>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M187" s="5" t="s">
+      <c r="K187" s="2"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5" t="s">
+      <c r="N187" s="2"/>
+      <c r="O187" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5" t="s">
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="V187" s="5"/>
+      <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="5" t="s">
@@ -11252,9 +11106,7 @@
         <v>260</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>58</v>
       </c>
@@ -11300,9 +11152,7 @@
         <v>260</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>58</v>
       </c>

--- a/data/output/FV2404_FV2310/INVOIC/31011.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31011.xlsx
@@ -2107,7 +2107,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2997,7 +2997,7 @@
         <v>299</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3185,7 +3185,7 @@
         <v>299</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3373,7 +3373,7 @@
         <v>300</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2"/>
@@ -3757,7 +3757,7 @@
         <v>303</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2"/>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4079,7 +4079,7 @@
         <v>304</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4475,7 +4475,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6835,22 +6835,22 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>281</v>
       </c>
       <c r="K100" s="6" t="s">
@@ -6859,19 +6859,19 @@
       <c r="L100" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>281</v>
       </c>
       <c r="V100" s="6" t="s">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7919,7 +7919,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8749,7 +8749,7 @@
         <v>299</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8953,7 +8953,7 @@
         <v>299</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9157,7 +9157,7 @@
         <v>300</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N165" s="2"/>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N187" s="2"/>
